--- a/data/pca/factorExposure/factorExposure_2016-12-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01398395374116864</v>
+        <v>0.01316883902022868</v>
       </c>
       <c r="C2">
-        <v>0.04335085371165692</v>
+        <v>0.04170196160224167</v>
       </c>
       <c r="D2">
-        <v>-0.02275527396254379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05939547401431459</v>
+      </c>
+      <c r="E2">
+        <v>-0.01479558409058874</v>
+      </c>
+      <c r="F2">
+        <v>-0.09518583915111524</v>
+      </c>
+      <c r="G2">
+        <v>-0.0353778327207039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05993363856849788</v>
+        <v>0.03556362313343987</v>
       </c>
       <c r="C3">
-        <v>0.1019321402812101</v>
+        <v>0.08847318191788403</v>
       </c>
       <c r="D3">
-        <v>-0.03814066571429779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.1019799587727292</v>
+      </c>
+      <c r="E3">
+        <v>-0.026597811785463</v>
+      </c>
+      <c r="F3">
+        <v>-0.10112882058508</v>
+      </c>
+      <c r="G3">
+        <v>0.07040112260853307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06210784995868378</v>
+        <v>0.05681868359206151</v>
       </c>
       <c r="C4">
-        <v>0.06343800158264466</v>
+        <v>0.05987987800571338</v>
       </c>
       <c r="D4">
-        <v>-0.003372462765267446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05592149426575949</v>
+      </c>
+      <c r="E4">
+        <v>-0.007762788360045098</v>
+      </c>
+      <c r="F4">
+        <v>-0.09553714609540924</v>
+      </c>
+      <c r="G4">
+        <v>0.0276385661432779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02769003238953942</v>
+        <v>0.03554743360787192</v>
       </c>
       <c r="C6">
-        <v>0.05269022907769041</v>
+        <v>0.03821371779967353</v>
       </c>
       <c r="D6">
-        <v>-0.006993159648175657</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06346219288821642</v>
+      </c>
+      <c r="E6">
+        <v>-0.01424186950797806</v>
+      </c>
+      <c r="F6">
+        <v>-0.08860532027086408</v>
+      </c>
+      <c r="G6">
+        <v>0.00965387632385507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01976675180827277</v>
+        <v>0.0202766237492979</v>
       </c>
       <c r="C7">
-        <v>0.04464726504710789</v>
+        <v>0.03570566096117996</v>
       </c>
       <c r="D7">
-        <v>0.01000445050948687</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03090601914194141</v>
+      </c>
+      <c r="E7">
+        <v>0.001062108019717186</v>
+      </c>
+      <c r="F7">
+        <v>-0.1208771006545674</v>
+      </c>
+      <c r="G7">
+        <v>-0.008768825551501783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.001620507312832311</v>
+        <v>0.005659543336257204</v>
       </c>
       <c r="C8">
-        <v>0.009178585663241891</v>
+        <v>0.01827695197328761</v>
       </c>
       <c r="D8">
-        <v>-0.01842042509307467</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03702278832916523</v>
+      </c>
+      <c r="E8">
+        <v>-0.006635859050014387</v>
+      </c>
+      <c r="F8">
+        <v>-0.06886701619622995</v>
+      </c>
+      <c r="G8">
+        <v>0.006434142851657916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02629783122696955</v>
+        <v>0.03499213501479756</v>
       </c>
       <c r="C9">
-        <v>0.04390280034097998</v>
+        <v>0.04555722503004373</v>
       </c>
       <c r="D9">
-        <v>0.003374404578807105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04000598944059335</v>
+      </c>
+      <c r="E9">
+        <v>-0.004463644603026688</v>
+      </c>
+      <c r="F9">
+        <v>-0.09878845369014022</v>
+      </c>
+      <c r="G9">
+        <v>0.00959748267487257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07622327101316102</v>
+        <v>0.09268885953514973</v>
       </c>
       <c r="C10">
-        <v>-0.1999130561252457</v>
+        <v>-0.1961017361938091</v>
       </c>
       <c r="D10">
-        <v>-0.02060886945229579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01386995881877152</v>
+      </c>
+      <c r="E10">
+        <v>-0.02989721378753975</v>
+      </c>
+      <c r="F10">
+        <v>-0.05223438393721728</v>
+      </c>
+      <c r="G10">
+        <v>-5.472185298323468e-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04000809125899463</v>
+        <v>0.0363034367195398</v>
       </c>
       <c r="C11">
-        <v>0.05235226321694168</v>
+        <v>0.05049682948643219</v>
       </c>
       <c r="D11">
-        <v>0.004978106610124088</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02864128440582838</v>
+      </c>
+      <c r="E11">
+        <v>0.01497701381521029</v>
+      </c>
+      <c r="F11">
+        <v>-0.07195782291596553</v>
+      </c>
+      <c r="G11">
+        <v>0.00400300002895552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03473705700754903</v>
+        <v>0.03659979408116323</v>
       </c>
       <c r="C12">
-        <v>0.0435619409952821</v>
+        <v>0.04624817329532712</v>
       </c>
       <c r="D12">
-        <v>0.007985076076751949</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.01940572187046806</v>
+      </c>
+      <c r="E12">
+        <v>0.00509145384922979</v>
+      </c>
+      <c r="F12">
+        <v>-0.07188898160751322</v>
+      </c>
+      <c r="G12">
+        <v>0.002174747832139144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.007466817445273876</v>
+        <v>0.01224946288815597</v>
       </c>
       <c r="C13">
-        <v>0.03965619333337565</v>
+        <v>0.03751300930929821</v>
       </c>
       <c r="D13">
-        <v>-0.01901505160787427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06690011934796376</v>
+      </c>
+      <c r="E13">
+        <v>-0.02412305258871524</v>
+      </c>
+      <c r="F13">
+        <v>-0.1367889554598402</v>
+      </c>
+      <c r="G13">
+        <v>0.008762196696234487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007530758354098258</v>
+        <v>0.008246840476177152</v>
       </c>
       <c r="C14">
-        <v>0.02815309135412156</v>
+        <v>0.027647146612798</v>
       </c>
       <c r="D14">
-        <v>0.01010884855477178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02481202963400819</v>
+      </c>
+      <c r="E14">
+        <v>-0.006659681376228143</v>
+      </c>
+      <c r="F14">
+        <v>-0.1123822002947387</v>
+      </c>
+      <c r="G14">
+        <v>-0.01537583632962119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03458411296457161</v>
+        <v>0.03483699719773969</v>
       </c>
       <c r="C16">
-        <v>0.03949664137703558</v>
+        <v>0.0433157629739819</v>
       </c>
       <c r="D16">
-        <v>0.000791186071115966</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02451012858549563</v>
+      </c>
+      <c r="E16">
+        <v>-0.001779503601484133</v>
+      </c>
+      <c r="F16">
+        <v>-0.07692327338106358</v>
+      </c>
+      <c r="G16">
+        <v>-0.008886143489327989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.03289564072894179</v>
+        <v>0.02064595499691568</v>
       </c>
       <c r="C19">
-        <v>0.0554973020873636</v>
+        <v>0.04745773535437759</v>
       </c>
       <c r="D19">
-        <v>-0.03872394764581054</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1018013573276819</v>
+      </c>
+      <c r="E19">
+        <v>-0.02680412186169745</v>
+      </c>
+      <c r="F19">
+        <v>-0.1380563349115965</v>
+      </c>
+      <c r="G19">
+        <v>-0.02216396781290183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01251850434731043</v>
+        <v>0.01593061621867974</v>
       </c>
       <c r="C20">
-        <v>0.04354623199331555</v>
+        <v>0.03678914358798197</v>
       </c>
       <c r="D20">
-        <v>-0.02259969781581075</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04858594254641323</v>
+      </c>
+      <c r="E20">
+        <v>-0.03102289921351416</v>
+      </c>
+      <c r="F20">
+        <v>-0.1045780494315452</v>
+      </c>
+      <c r="G20">
+        <v>-0.008236784453598338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.00571895761944047</v>
+        <v>0.009956085769174387</v>
       </c>
       <c r="C21">
-        <v>0.03640455225592264</v>
+        <v>0.03547436126012205</v>
       </c>
       <c r="D21">
-        <v>-0.03114126533234687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06765541271471262</v>
+      </c>
+      <c r="E21">
+        <v>-0.02766915771215366</v>
+      </c>
+      <c r="F21">
+        <v>-0.1579396497779163</v>
+      </c>
+      <c r="G21">
+        <v>-0.007365569602419159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.003285609836385402</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0140230628159939</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.02480181906195323</v>
+      </c>
+      <c r="E22">
+        <v>0.0002908778149264475</v>
+      </c>
+      <c r="F22">
+        <v>-0.016801065048157</v>
+      </c>
+      <c r="G22">
+        <v>0.03423168168200024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.003325940666693207</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01397403363773305</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.02459097084052946</v>
+      </c>
+      <c r="E23">
+        <v>-4.658164635346314e-05</v>
+      </c>
+      <c r="F23">
+        <v>-0.01663759227050099</v>
+      </c>
+      <c r="G23">
+        <v>0.03428572620549547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02797861992116212</v>
+        <v>0.03117658807081111</v>
       </c>
       <c r="C24">
-        <v>0.04643504713930908</v>
+        <v>0.04953606733066757</v>
       </c>
       <c r="D24">
-        <v>0.008824334123336589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02367920523928563</v>
+      </c>
+      <c r="E24">
+        <v>0.006314058560950763</v>
+      </c>
+      <c r="F24">
+        <v>-0.08015624612072079</v>
+      </c>
+      <c r="G24">
+        <v>-0.003042068857680439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04598524195148104</v>
+        <v>0.04297607685606531</v>
       </c>
       <c r="C25">
-        <v>0.05364545996849006</v>
+        <v>0.05578819328820338</v>
       </c>
       <c r="D25">
-        <v>0.01927526277168204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01738828498278377</v>
+      </c>
+      <c r="E25">
+        <v>0.006571755555307231</v>
+      </c>
+      <c r="F25">
+        <v>-0.08789678267365852</v>
+      </c>
+      <c r="G25">
+        <v>0.01340354563031084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.007686614826564163</v>
+        <v>0.01473382904372729</v>
       </c>
       <c r="C26">
-        <v>0.01073648642859481</v>
+        <v>0.01089233647824493</v>
       </c>
       <c r="D26">
-        <v>-0.004152250229131011</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02044370027099149</v>
+      </c>
+      <c r="E26">
+        <v>-0.006882800082858969</v>
+      </c>
+      <c r="F26">
+        <v>-0.08357418075901613</v>
+      </c>
+      <c r="G26">
+        <v>-0.0224968112255851</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09134334091343548</v>
+        <v>0.1250910369529027</v>
       </c>
       <c r="C28">
-        <v>-0.227613862815421</v>
+        <v>-0.2463325083267154</v>
       </c>
       <c r="D28">
-        <v>-0.01247268032458409</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.003327006999765523</v>
+      </c>
+      <c r="E28">
+        <v>-0.03405793144217496</v>
+      </c>
+      <c r="F28">
+        <v>-0.06089281277802977</v>
+      </c>
+      <c r="G28">
+        <v>0.007645030317396158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01147233157638959</v>
+        <v>0.008338624158462605</v>
       </c>
       <c r="C29">
-        <v>0.02135480013619722</v>
+        <v>0.02303494275199118</v>
       </c>
       <c r="D29">
-        <v>0.009902959382772266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01549286424428887</v>
+      </c>
+      <c r="E29">
+        <v>-0.01106050845441664</v>
+      </c>
+      <c r="F29">
+        <v>-0.1046387445311601</v>
+      </c>
+      <c r="G29">
+        <v>-0.001693801150353029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.0394624653792238</v>
+        <v>0.03882100423755903</v>
       </c>
       <c r="C30">
-        <v>0.07212569762110559</v>
+        <v>0.06367319032688731</v>
       </c>
       <c r="D30">
-        <v>0.001629377726921201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08886819162928643</v>
+      </c>
+      <c r="E30">
+        <v>0.01706005168877632</v>
+      </c>
+      <c r="F30">
+        <v>-0.1118252004550013</v>
+      </c>
+      <c r="G30">
+        <v>-0.026050014550603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04094906144356524</v>
+        <v>0.05685141038252991</v>
       </c>
       <c r="C31">
-        <v>0.02939496117881567</v>
+        <v>0.0419683283198547</v>
       </c>
       <c r="D31">
-        <v>0.01154714139631621</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.002202573001853574</v>
+      </c>
+      <c r="E31">
+        <v>-0.033499381460035</v>
+      </c>
+      <c r="F31">
+        <v>-0.09552935874301542</v>
+      </c>
+      <c r="G31">
+        <v>0.02656239033422964</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.006267179925892477</v>
+        <v>0.002682847284528555</v>
       </c>
       <c r="C32">
-        <v>0.0346165420985069</v>
+        <v>0.02371279910101453</v>
       </c>
       <c r="D32">
-        <v>-0.01262373101468053</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04650373071343077</v>
+      </c>
+      <c r="E32">
+        <v>0.009722878142399197</v>
+      </c>
+      <c r="F32">
+        <v>-0.078603329749012</v>
+      </c>
+      <c r="G32">
+        <v>-0.0126130204697527</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02942413998429026</v>
+        <v>0.02677071588680733</v>
       </c>
       <c r="C33">
-        <v>0.05569958579408226</v>
+        <v>0.04624235122561408</v>
       </c>
       <c r="D33">
-        <v>-0.008977276161670584</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07342052114713571</v>
+      </c>
+      <c r="E33">
+        <v>-0.004174560532418286</v>
+      </c>
+      <c r="F33">
+        <v>-0.1555909880356586</v>
+      </c>
+      <c r="G33">
+        <v>0.00845119847873973</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05456518513514571</v>
+        <v>0.04340901777792975</v>
       </c>
       <c r="C34">
-        <v>0.05159867280087932</v>
+        <v>0.05986316249830352</v>
       </c>
       <c r="D34">
-        <v>0.01435839402549849</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.02233301682667931</v>
+      </c>
+      <c r="E34">
+        <v>0.02022766305280412</v>
+      </c>
+      <c r="F34">
+        <v>-0.07798761929538998</v>
+      </c>
+      <c r="G34">
+        <v>0.00141525744244672</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008738885879269643</v>
+        <v>0.01511660047887186</v>
       </c>
       <c r="C36">
-        <v>0.00681175612061847</v>
+        <v>0.006414254962790468</v>
       </c>
       <c r="D36">
-        <v>0.003656015963113406</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02308583943765703</v>
+      </c>
+      <c r="E36">
+        <v>-0.01124643402521169</v>
+      </c>
+      <c r="F36">
+        <v>-0.09677964547849717</v>
+      </c>
+      <c r="G36">
+        <v>0.0005538259074920746</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03758491395089458</v>
+        <v>0.03123111084401409</v>
       </c>
       <c r="C38">
-        <v>0.01841576900975779</v>
+        <v>0.02207040480471271</v>
       </c>
       <c r="D38">
-        <v>0.006666004217203204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.021447534229726</v>
+      </c>
+      <c r="E38">
+        <v>-0.014259621085807</v>
+      </c>
+      <c r="F38">
+        <v>-0.08874417891275728</v>
+      </c>
+      <c r="G38">
+        <v>0.006709601054871592</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.03743802251247354</v>
+        <v>0.0371010826984509</v>
       </c>
       <c r="C39">
-        <v>0.08447848855933185</v>
+        <v>0.07477404047996686</v>
       </c>
       <c r="D39">
-        <v>-0.003797512113897212</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04606752626555589</v>
+      </c>
+      <c r="E39">
+        <v>0.01557688572935866</v>
+      </c>
+      <c r="F39">
+        <v>-0.08745822090257266</v>
+      </c>
+      <c r="G39">
+        <v>-0.0297746697155332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01660384521686087</v>
+        <v>0.01684459838427707</v>
       </c>
       <c r="C40">
-        <v>0.02690405274881722</v>
+        <v>0.0364363480266807</v>
       </c>
       <c r="D40">
-        <v>-0.01911845127381055</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03649389094394936</v>
+      </c>
+      <c r="E40">
+        <v>-0.03143186170559482</v>
+      </c>
+      <c r="F40">
+        <v>-0.1207955827366681</v>
+      </c>
+      <c r="G40">
+        <v>0.04202722269908516</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01115693975557909</v>
+        <v>0.01840254191360653</v>
       </c>
       <c r="C41">
-        <v>-0.000788071269717707</v>
+        <v>-0.001821930716985996</v>
       </c>
       <c r="D41">
-        <v>0.005526007790081172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01855380522489502</v>
+      </c>
+      <c r="E41">
+        <v>-0.01532243014205578</v>
+      </c>
+      <c r="F41">
+        <v>-0.08803806294934517</v>
+      </c>
+      <c r="G41">
+        <v>-0.005307739076099334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.004903257302803631</v>
+        <v>0.003228278184699086</v>
       </c>
       <c r="C42">
-        <v>0.04912246783640038</v>
+        <v>0.02711303181968079</v>
       </c>
       <c r="D42">
-        <v>-0.02268924208335483</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.001418943285608511</v>
+      </c>
+      <c r="E42">
+        <v>-0.02641337467278971</v>
+      </c>
+      <c r="F42">
+        <v>0.03372518057778463</v>
+      </c>
+      <c r="G42">
+        <v>-0.01167841740718522</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03018844291749271</v>
+        <v>0.03235537118582961</v>
       </c>
       <c r="C43">
-        <v>0.009181070042290353</v>
+        <v>0.01089288383626088</v>
       </c>
       <c r="D43">
-        <v>0.004407501227096756</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03740396158138387</v>
+      </c>
+      <c r="E43">
+        <v>-0.01234412949597238</v>
+      </c>
+      <c r="F43">
+        <v>-0.1133740733674039</v>
+      </c>
+      <c r="G43">
+        <v>0.01638927599177292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02184875477801281</v>
+        <v>0.01498603872961649</v>
       </c>
       <c r="C44">
-        <v>0.05349617326950277</v>
+        <v>0.05060288052380279</v>
       </c>
       <c r="D44">
-        <v>-0.006997585572632054</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04316602970365347</v>
+      </c>
+      <c r="E44">
+        <v>-0.0215250306458814</v>
+      </c>
+      <c r="F44">
+        <v>-0.1147178623993962</v>
+      </c>
+      <c r="G44">
+        <v>-0.007380527561546116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.000188267787812933</v>
+        <v>0.01020019750811707</v>
       </c>
       <c r="C46">
-        <v>0.01408055145392528</v>
+        <v>0.01810078394612099</v>
       </c>
       <c r="D46">
-        <v>0.01915520109118265</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.008510809257923543</v>
+      </c>
+      <c r="E46">
+        <v>-0.0166489283943719</v>
+      </c>
+      <c r="F46">
+        <v>-0.1126994617888492</v>
+      </c>
+      <c r="G46">
+        <v>-0.008131718279437922</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07531170112756014</v>
+        <v>0.08623928356573465</v>
       </c>
       <c r="C47">
-        <v>0.06533877782411113</v>
+        <v>0.0716067590633504</v>
       </c>
       <c r="D47">
-        <v>0.008419997060755654</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.007445542459923284</v>
+      </c>
+      <c r="E47">
+        <v>-0.04178358247779736</v>
+      </c>
+      <c r="F47">
+        <v>-0.08927858736137199</v>
+      </c>
+      <c r="G47">
+        <v>0.03245924531644576</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01641775694329424</v>
+        <v>0.01678495523765116</v>
       </c>
       <c r="C48">
-        <v>0.009330600405776417</v>
+        <v>0.01240656335494634</v>
       </c>
       <c r="D48">
-        <v>0.007916252462689099</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01650086892813155</v>
+      </c>
+      <c r="E48">
+        <v>-0.02046055644419883</v>
+      </c>
+      <c r="F48">
+        <v>-0.1054737033644892</v>
+      </c>
+      <c r="G48">
+        <v>-0.004149658258609626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.081698650164913</v>
+        <v>0.07802284490991097</v>
       </c>
       <c r="C50">
-        <v>0.06114176319251941</v>
+        <v>0.06799292706830906</v>
       </c>
       <c r="D50">
-        <v>0.0150539745628244</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0006001417646083216</v>
+      </c>
+      <c r="E50">
+        <v>-0.04085388830029202</v>
+      </c>
+      <c r="F50">
+        <v>-0.09860727988744747</v>
+      </c>
+      <c r="G50">
+        <v>0.05779706418125113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01776569686262288</v>
+        <v>0.01259113350678877</v>
       </c>
       <c r="C51">
-        <v>0.03835658571751432</v>
+        <v>0.03182876970695177</v>
       </c>
       <c r="D51">
-        <v>0.002563416150995553</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04242963588179704</v>
+      </c>
+      <c r="E51">
+        <v>0.006505055485037174</v>
+      </c>
+      <c r="F51">
+        <v>-0.1038848815313051</v>
+      </c>
+      <c r="G51">
+        <v>-0.01889828674091228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1015174258475762</v>
+        <v>0.08968393505959597</v>
       </c>
       <c r="C53">
-        <v>0.06934393973437279</v>
+        <v>0.0854374274850061</v>
       </c>
       <c r="D53">
-        <v>0.03450409407256066</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02840295028509352</v>
+      </c>
+      <c r="E53">
+        <v>-0.04693116447471544</v>
+      </c>
+      <c r="F53">
+        <v>-0.09491476937408164</v>
+      </c>
+      <c r="G53">
+        <v>0.04562783810154659</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0281235874748661</v>
+        <v>0.03109528617067136</v>
       </c>
       <c r="C54">
-        <v>0.001203374126796419</v>
+        <v>0.01813796299944082</v>
       </c>
       <c r="D54">
-        <v>-0.004369375897500716</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0288451213791086</v>
+      </c>
+      <c r="E54">
+        <v>-0.01280665371320185</v>
+      </c>
+      <c r="F54">
+        <v>-0.1123805212021901</v>
+      </c>
+      <c r="G54">
+        <v>-0.004809711951819051</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07586837900226555</v>
+        <v>0.08250812633248852</v>
       </c>
       <c r="C55">
-        <v>0.06397916512854221</v>
+        <v>0.06933375283589574</v>
       </c>
       <c r="D55">
-        <v>0.02768325298143191</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03324519098365637</v>
+      </c>
+      <c r="E55">
+        <v>-0.04659851888632766</v>
+      </c>
+      <c r="F55">
+        <v>-0.06787026730862651</v>
+      </c>
+      <c r="G55">
+        <v>0.03628108358826976</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1546878041193229</v>
+        <v>0.1447775451827323</v>
       </c>
       <c r="C56">
-        <v>0.09037539572704703</v>
+        <v>0.1049323687757752</v>
       </c>
       <c r="D56">
-        <v>0.03212274499732446</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04099529208603707</v>
+      </c>
+      <c r="E56">
+        <v>-0.05470802815001154</v>
+      </c>
+      <c r="F56">
+        <v>-0.05612762611228087</v>
+      </c>
+      <c r="G56">
+        <v>0.05126832127498644</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.005435341964135427</v>
+        <v>0.002231518063371126</v>
       </c>
       <c r="C57">
-        <v>0.008327743365009526</v>
+        <v>0.004414567513198837</v>
       </c>
       <c r="D57">
-        <v>-0.03140971161647668</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.0266486181140307</v>
+      </c>
+      <c r="E57">
+        <v>-0.001478380931316588</v>
+      </c>
+      <c r="F57">
+        <v>-0.01023989607972473</v>
+      </c>
+      <c r="G57">
+        <v>-0.001996271995187315</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0541492535804843</v>
+        <v>0.03745752815226343</v>
       </c>
       <c r="C58">
-        <v>0.06751015882589521</v>
+        <v>0.0307540345388593</v>
       </c>
       <c r="D58">
-        <v>-0.9645029882073045</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.7035198906801191</v>
+      </c>
+      <c r="E58">
+        <v>-0.6002779393055108</v>
+      </c>
+      <c r="F58">
+        <v>0.3126013779645046</v>
+      </c>
+      <c r="G58">
+        <v>0.02520868702359589</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1385532694847413</v>
+        <v>0.1478889149575959</v>
       </c>
       <c r="C59">
-        <v>-0.2260148716256045</v>
+        <v>-0.2051485284216358</v>
       </c>
       <c r="D59">
-        <v>-0.0133823259908949</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02191727457341331</v>
+      </c>
+      <c r="E59">
+        <v>-0.01206969497321422</v>
+      </c>
+      <c r="F59">
+        <v>-0.03900032941357444</v>
+      </c>
+      <c r="G59">
+        <v>-0.02385003686896555</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3119948834572769</v>
+        <v>0.2866632364196371</v>
       </c>
       <c r="C60">
-        <v>0.07569936178480847</v>
+        <v>0.09149947097688442</v>
       </c>
       <c r="D60">
-        <v>-0.02630006316103362</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1407218321490876</v>
+      </c>
+      <c r="E60">
+        <v>0.2939310448769966</v>
+      </c>
+      <c r="F60">
+        <v>0.1356698241604959</v>
+      </c>
+      <c r="G60">
+        <v>0.04002372654136031</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03478445112691873</v>
+        <v>0.0394656455696097</v>
       </c>
       <c r="C61">
-        <v>0.06229136078405847</v>
+        <v>0.06226525965581162</v>
       </c>
       <c r="D61">
-        <v>-0.004303672901081956</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04049680876934109</v>
+      </c>
+      <c r="E61">
+        <v>0.006600103706612102</v>
+      </c>
+      <c r="F61">
+        <v>-0.08939440102552473</v>
+      </c>
+      <c r="G61">
+        <v>0.003146844560768374</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01530058582442476</v>
+        <v>0.01572235141265411</v>
       </c>
       <c r="C63">
-        <v>0.02677214248849687</v>
+        <v>0.02675821979411484</v>
       </c>
       <c r="D63">
-        <v>0.01658660549303112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01560665621289844</v>
+      </c>
+      <c r="E63">
+        <v>-0.01231309302200781</v>
+      </c>
+      <c r="F63">
+        <v>-0.08978101218893456</v>
+      </c>
+      <c r="G63">
+        <v>0.02124572735101201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04666163379881973</v>
+        <v>0.052355795538654</v>
       </c>
       <c r="C64">
-        <v>0.02874156899251391</v>
+        <v>0.04630359064342542</v>
       </c>
       <c r="D64">
-        <v>0.01506460999972257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.009792335059378383</v>
+      </c>
+      <c r="E64">
+        <v>0.002856517836375117</v>
+      </c>
+      <c r="F64">
+        <v>-0.09204495245818341</v>
+      </c>
+      <c r="G64">
+        <v>-0.01545267313232859</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08839084087890749</v>
+        <v>0.07197234276289867</v>
       </c>
       <c r="C65">
-        <v>0.06077121178575689</v>
+        <v>0.04417547902647673</v>
       </c>
       <c r="D65">
-        <v>-0.009641686288643796</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.06710526638638867</v>
+      </c>
+      <c r="E65">
+        <v>0.00471758890510969</v>
+      </c>
+      <c r="F65">
+        <v>-0.04037212860644655</v>
+      </c>
+      <c r="G65">
+        <v>-0.002632429262351166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06203058484151144</v>
+        <v>0.05069452813708786</v>
       </c>
       <c r="C66">
-        <v>0.1197743082591337</v>
+        <v>0.09853494332640124</v>
       </c>
       <c r="D66">
-        <v>-0.01065800124188374</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.06932646049759167</v>
+      </c>
+      <c r="E66">
+        <v>0.01906348643947493</v>
+      </c>
+      <c r="F66">
+        <v>-0.09273933306212313</v>
+      </c>
+      <c r="G66">
+        <v>-0.01081066232832402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06405278876592417</v>
+        <v>0.05331068558465246</v>
       </c>
       <c r="C67">
-        <v>0.02104938901591132</v>
+        <v>0.02746077320085165</v>
       </c>
       <c r="D67">
-        <v>0.01184507687218017</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.007379805858351089</v>
+      </c>
+      <c r="E67">
+        <v>-0.008146802351401732</v>
+      </c>
+      <c r="F67">
+        <v>-0.0733334917552971</v>
+      </c>
+      <c r="G67">
+        <v>0.0118733534106738</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.110617028666115</v>
+        <v>0.1482187629104675</v>
       </c>
       <c r="C68">
-        <v>-0.2894631716613676</v>
+        <v>-0.2693933636114026</v>
       </c>
       <c r="D68">
-        <v>-0.02519845465165336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.006968081499687529</v>
+      </c>
+      <c r="E68">
+        <v>-0.04132223866394143</v>
+      </c>
+      <c r="F68">
+        <v>-0.02355995205803595</v>
+      </c>
+      <c r="G68">
+        <v>-0.005366745740555788</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0832580012291108</v>
+        <v>0.08513243679197977</v>
       </c>
       <c r="C69">
-        <v>0.05916797042093011</v>
+        <v>0.07549096644704864</v>
       </c>
       <c r="D69">
-        <v>0.02976937094419689</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01163151642559863</v>
+      </c>
+      <c r="E69">
+        <v>-0.01674076890121086</v>
+      </c>
+      <c r="F69">
+        <v>-0.09966054080377357</v>
+      </c>
+      <c r="G69">
+        <v>0.003572703660943864</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1179327683338515</v>
+        <v>0.1376741728911451</v>
       </c>
       <c r="C71">
-        <v>-0.241164968598534</v>
+        <v>-0.2387756106284584</v>
       </c>
       <c r="D71">
-        <v>-0.02628429434726322</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02181558688450394</v>
+      </c>
+      <c r="E71">
+        <v>-0.04012222938313734</v>
+      </c>
+      <c r="F71">
+        <v>-0.06667781812002035</v>
+      </c>
+      <c r="G71">
+        <v>0.0185297445349664</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.07840892305791956</v>
+        <v>0.08816559619208064</v>
       </c>
       <c r="C72">
-        <v>0.05789096609582512</v>
+        <v>0.05708586899670027</v>
       </c>
       <c r="D72">
-        <v>0.04945030207838388</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.006363471862774012</v>
+      </c>
+      <c r="E72">
+        <v>0.02425642544815461</v>
+      </c>
+      <c r="F72">
+        <v>-0.08028059021815284</v>
+      </c>
+      <c r="G72">
+        <v>0.01413863003537036</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4499969176353768</v>
+        <v>0.3664995165030802</v>
       </c>
       <c r="C73">
-        <v>0.07607543633227684</v>
+        <v>0.07725303273854435</v>
       </c>
       <c r="D73">
-        <v>-0.04198069134743813</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.2982372533134733</v>
+      </c>
+      <c r="E73">
+        <v>0.5317777758504852</v>
+      </c>
+      <c r="F73">
+        <v>0.3310558631743523</v>
+      </c>
+      <c r="G73">
+        <v>0.1579200450729978</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1216196696117483</v>
+        <v>0.1133661848640429</v>
       </c>
       <c r="C74">
-        <v>0.1124085903065078</v>
+        <v>0.1038827098954431</v>
       </c>
       <c r="D74">
-        <v>0.02405821370357273</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01469333989698584</v>
+      </c>
+      <c r="E74">
+        <v>-0.06302834290889478</v>
+      </c>
+      <c r="F74">
+        <v>-0.07783297422936232</v>
+      </c>
+      <c r="G74">
+        <v>0.0574201027655889</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2722425492650046</v>
+        <v>0.2576506392956364</v>
       </c>
       <c r="C75">
-        <v>0.1211568593359789</v>
+        <v>0.141350225713556</v>
       </c>
       <c r="D75">
-        <v>0.05453909994225269</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.106202738565403</v>
+      </c>
+      <c r="E75">
+        <v>-0.1231809791877976</v>
+      </c>
+      <c r="F75">
+        <v>-0.0199522001329883</v>
+      </c>
+      <c r="G75">
+        <v>0.08392987031263702</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1238868112284968</v>
+        <v>0.1277076135479395</v>
       </c>
       <c r="C76">
-        <v>0.103386237955034</v>
+        <v>0.1047001896572845</v>
       </c>
       <c r="D76">
-        <v>0.03905304119613279</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04519948391231381</v>
+      </c>
+      <c r="E76">
+        <v>-0.08303063091563384</v>
+      </c>
+      <c r="F76">
+        <v>-0.07537588367860594</v>
+      </c>
+      <c r="G76">
+        <v>0.05336365168649252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07292244296250316</v>
+        <v>0.06669111847331884</v>
       </c>
       <c r="C77">
-        <v>0.05623321618720194</v>
+        <v>0.06297492581505314</v>
       </c>
       <c r="D77">
-        <v>-0.027430464699811</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05885066686519421</v>
+      </c>
+      <c r="E77">
+        <v>-0.03486153685603399</v>
+      </c>
+      <c r="F77">
+        <v>-0.1032030806134316</v>
+      </c>
+      <c r="G77">
+        <v>-0.1349574110087686</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04618028221367616</v>
+        <v>0.04298921063102213</v>
       </c>
       <c r="C78">
-        <v>0.04844368045170853</v>
+        <v>0.05471801091017944</v>
       </c>
       <c r="D78">
-        <v>-0.006275725920848429</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05703673022826643</v>
+      </c>
+      <c r="E78">
+        <v>0.02061183446444854</v>
+      </c>
+      <c r="F78">
+        <v>-0.09965905518667252</v>
+      </c>
+      <c r="G78">
+        <v>-0.008806564690502176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0003741142561685883</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0004104326411649156</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.007286226368846035</v>
+      </c>
+      <c r="E79">
+        <v>-0.003895141997230089</v>
+      </c>
+      <c r="F79">
+        <v>-0.01127717407041518</v>
+      </c>
+      <c r="G79">
+        <v>-0.002329438637063808</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.05568932819144534</v>
+        <v>0.04051560036174866</v>
       </c>
       <c r="C80">
-        <v>0.05639476916241581</v>
+        <v>0.04739200440404304</v>
       </c>
       <c r="D80">
-        <v>-0.0153312365244329</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04133908444837224</v>
+      </c>
+      <c r="E80">
+        <v>0.0004402440864901922</v>
+      </c>
+      <c r="F80">
+        <v>-0.03494728260725016</v>
+      </c>
+      <c r="G80">
+        <v>-0.04637633604388187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1394458915357453</v>
+        <v>0.1430651707727384</v>
       </c>
       <c r="C81">
-        <v>0.07697283940244977</v>
+        <v>0.0918032855053761</v>
       </c>
       <c r="D81">
-        <v>0.03534131485253923</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07413258225132054</v>
+      </c>
+      <c r="E81">
+        <v>-0.1043767012532412</v>
+      </c>
+      <c r="F81">
+        <v>-0.03796428885182635</v>
+      </c>
+      <c r="G81">
+        <v>0.05104177942158235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.05758475306013284</v>
+        <v>0.1785045074199829</v>
       </c>
       <c r="C82">
-        <v>0.0403056161342466</v>
+        <v>0.1244268458971894</v>
       </c>
       <c r="D82">
-        <v>0.02173840496147956</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.1904196678010663</v>
+      </c>
+      <c r="E82">
+        <v>-0.06014217218758235</v>
+      </c>
+      <c r="F82">
+        <v>-0.04911379169548908</v>
+      </c>
+      <c r="G82">
+        <v>-0.008951510558227228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03030497418975708</v>
+        <v>0.02842161889472092</v>
       </c>
       <c r="C83">
-        <v>0.01896920523552503</v>
+        <v>0.03203386769351565</v>
       </c>
       <c r="D83">
-        <v>-0.0176373580107219</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03381082846602252</v>
+      </c>
+      <c r="E83">
+        <v>0.007926288430289096</v>
+      </c>
+      <c r="F83">
+        <v>-0.05614992322853532</v>
+      </c>
+      <c r="G83">
+        <v>-0.0310676397274449</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2509230433526644</v>
+        <v>0.2128240547186326</v>
       </c>
       <c r="C85">
-        <v>0.1192047637463847</v>
+        <v>0.1250580326707556</v>
       </c>
       <c r="D85">
-        <v>0.1158335638873964</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1097411652746258</v>
+      </c>
+      <c r="E85">
+        <v>-0.04939249582702094</v>
+      </c>
+      <c r="F85">
+        <v>0.01914526467294973</v>
+      </c>
+      <c r="G85">
+        <v>0.1205148331502874</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01232994416414863</v>
+        <v>0.01395713653420146</v>
       </c>
       <c r="C86">
-        <v>0.02131007985285342</v>
+        <v>0.02403379503861194</v>
       </c>
       <c r="D86">
-        <v>-0.0133611804064025</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07989113830198297</v>
+      </c>
+      <c r="E86">
+        <v>0.006689350337747282</v>
+      </c>
+      <c r="F86">
+        <v>-0.1667774290378319</v>
+      </c>
+      <c r="G86">
+        <v>-0.02935091195169177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01409768929773134</v>
+        <v>0.02039358488531498</v>
       </c>
       <c r="C87">
-        <v>0.02268133432095309</v>
+        <v>0.01499401301003589</v>
       </c>
       <c r="D87">
-        <v>-0.07894237874744188</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09998587498775748</v>
+      </c>
+      <c r="E87">
+        <v>-0.03734244823354836</v>
+      </c>
+      <c r="F87">
+        <v>-0.105648649126514</v>
+      </c>
+      <c r="G87">
+        <v>-0.04720027880104338</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.09890679660522146</v>
+        <v>0.0902747081548647</v>
       </c>
       <c r="C88">
-        <v>0.06052303853891547</v>
+        <v>0.06042399113747865</v>
       </c>
       <c r="D88">
-        <v>0.001682010117753722</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0120484293237098</v>
+      </c>
+      <c r="E88">
+        <v>-0.0140179641281476</v>
+      </c>
+      <c r="F88">
+        <v>-0.09849551664218624</v>
+      </c>
+      <c r="G88">
+        <v>-0.04565497403790147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.186701259274345</v>
+        <v>0.210146180352797</v>
       </c>
       <c r="C89">
-        <v>-0.377133055164905</v>
+        <v>-0.371488184178015</v>
       </c>
       <c r="D89">
-        <v>0.01974133437008848</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0209327345713061</v>
+      </c>
+      <c r="E89">
+        <v>-0.009173365076442137</v>
+      </c>
+      <c r="F89">
+        <v>-0.0797786570136626</v>
+      </c>
+      <c r="G89">
+        <v>-0.08612964562241457</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1694772133815398</v>
+        <v>0.1974578699634326</v>
       </c>
       <c r="C90">
-        <v>-0.3535029434511008</v>
+        <v>-0.3252080942768911</v>
       </c>
       <c r="D90">
-        <v>-0.0197415001652101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01474214255600896</v>
+      </c>
+      <c r="E90">
+        <v>-0.05526940938088019</v>
+      </c>
+      <c r="F90">
+        <v>-0.05189963808014827</v>
+      </c>
+      <c r="G90">
+        <v>-0.02850679869373758</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.208955959509303</v>
+        <v>0.1936153086397605</v>
       </c>
       <c r="C91">
-        <v>0.1083982526650974</v>
+        <v>0.1306615366509466</v>
       </c>
       <c r="D91">
-        <v>0.05161957621371238</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08845212831982659</v>
+      </c>
+      <c r="E91">
+        <v>-0.1016285600718236</v>
+      </c>
+      <c r="F91">
+        <v>-0.04613418284539356</v>
+      </c>
+      <c r="G91">
+        <v>0.05079486567408031</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1741403731110579</v>
+        <v>0.1809404687297885</v>
       </c>
       <c r="C92">
-        <v>-0.280221263885812</v>
+        <v>-0.2769260049502798</v>
       </c>
       <c r="D92">
-        <v>-0.007201080898985366</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.003532439930231624</v>
+      </c>
+      <c r="E92">
+        <v>-0.07322322755002982</v>
+      </c>
+      <c r="F92">
+        <v>-0.07189403659973778</v>
+      </c>
+      <c r="G92">
+        <v>-0.02184643057812545</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1818180808448734</v>
+        <v>0.2203531706329453</v>
       </c>
       <c r="C93">
-        <v>-0.3307719791428949</v>
+        <v>-0.3201337635679509</v>
       </c>
       <c r="D93">
-        <v>-0.01446127141797017</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0001697822587642793</v>
+      </c>
+      <c r="E93">
+        <v>-0.03880528874422467</v>
+      </c>
+      <c r="F93">
+        <v>-0.05758086324214719</v>
+      </c>
+      <c r="G93">
+        <v>0.01391939622410285</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2685139892962418</v>
+        <v>0.337336361961767</v>
       </c>
       <c r="C94">
-        <v>0.1335117093191883</v>
+        <v>0.1873357660402429</v>
       </c>
       <c r="D94">
-        <v>0.08137743552695657</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3970682274737199</v>
+      </c>
+      <c r="E94">
+        <v>-0.3377226103177729</v>
+      </c>
+      <c r="F94">
+        <v>0.4069134654252691</v>
+      </c>
+      <c r="G94">
+        <v>-0.2378691457500632</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.0835336182505302</v>
+        <v>0.0809027848704722</v>
       </c>
       <c r="C95">
-        <v>0.07993727070259381</v>
+        <v>0.0845372667192575</v>
       </c>
       <c r="D95">
-        <v>-0.07738399625879816</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1401985743104407</v>
+      </c>
+      <c r="E95">
+        <v>0.1572151292840583</v>
+      </c>
+      <c r="F95">
+        <v>-0.02072771283663122</v>
+      </c>
+      <c r="G95">
+        <v>-0.8985642399804813</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2097572582123451</v>
+        <v>0.195174610085891</v>
       </c>
       <c r="C98">
-        <v>0.03180957427524611</v>
+        <v>0.04175874465389264</v>
       </c>
       <c r="D98">
-        <v>-0.03623931174929114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.133237843140439</v>
+      </c>
+      <c r="E98">
+        <v>0.1897576105828996</v>
+      </c>
+      <c r="F98">
+        <v>0.05383394638930603</v>
+      </c>
+      <c r="G98">
+        <v>0.1024986137981833</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01110134313019035</v>
+        <v>0.008173886620245241</v>
       </c>
       <c r="C101">
-        <v>0.0214314172771762</v>
+        <v>0.02295104370558677</v>
       </c>
       <c r="D101">
-        <v>0.01000525342650277</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01501127318066118</v>
+      </c>
+      <c r="E101">
+        <v>-0.01157058445527948</v>
+      </c>
+      <c r="F101">
+        <v>-0.1039623730244822</v>
+      </c>
+      <c r="G101">
+        <v>-0.002534592432100691</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1276491271814672</v>
+        <v>0.1245374765375831</v>
       </c>
       <c r="C102">
-        <v>0.07178440024412287</v>
+        <v>0.09540530661559603</v>
       </c>
       <c r="D102">
-        <v>0.0372570593551315</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05142110293182903</v>
+      </c>
+      <c r="E102">
+        <v>-0.0157539586321377</v>
+      </c>
+      <c r="F102">
+        <v>-0.01929636476173487</v>
+      </c>
+      <c r="G102">
+        <v>0.02071281959604188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.005926858520046108</v>
+        <v>-0.003197385713547045</v>
       </c>
       <c r="C104">
-        <v>0.01075959662507835</v>
+        <v>0.004817499704227843</v>
       </c>
       <c r="D104">
-        <v>-0.03109767292909683</v>
+        <v>0.01958542040747319</v>
+      </c>
+      <c r="E104">
+        <v>-0.006045615663088587</v>
+      </c>
+      <c r="F104">
+        <v>-0.008197695113334397</v>
+      </c>
+      <c r="G104">
+        <v>-0.01421228985294005</v>
       </c>
     </row>
   </sheetData>
